--- a/bigSample.xlsx
+++ b/bigSample.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATMX\Documents\imageFromExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Images" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Images" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Items!$A$5:$V$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Images!$A$1:$L$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Images!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -607,31 +613,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="21">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$$-404]#,##0.00_);[Red]\([$$-404]#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="180" formatCode="[$$-404]#,##0.0"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
-    <numFmt numFmtId="184" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
-    <numFmt numFmtId="185" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="190" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="192" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="[$$-404]#,##0.0_);[Red]\([$$-404]#,##0.0\)"/>
-    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="16">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$$-404]#,##0.00_);[Red]\([$$-404]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$$-404]#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="169" formatCode="0_ "/>
+    <numFmt numFmtId="170" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
+    <numFmt numFmtId="172" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="[$$-404]#,##0.0_);[Red]\([$$-404]#,##0.0\)"/>
   </numFmts>
-  <fonts count="75">
+  <fonts count="57">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -782,20 +783,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -807,121 +794,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,21 +856,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -1120,8 +977,15 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="63">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,13 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,169 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,30 +1097,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1600,104 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1794,932 +1374,746 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="40" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="105" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="105" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="105" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="105" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="105" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="105" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="57" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="8" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="5" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="8" fillId="6" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="6" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="3" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="12" fillId="3" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="13" fillId="3" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="14" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="8" fillId="6" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="12" fillId="0" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="3" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="5" fillId="8" borderId="3" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="22" fillId="8" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="12" fillId="3" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="13" fillId="3" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="14" fillId="4" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="6" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="8" fillId="5" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="3" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="16" fillId="6" borderId="3" xfId="134" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="16" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="7" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="22" fillId="8" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="23" fillId="6" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="117">
+    <cellStyle name="20% - 輔色1 2" xfId="27"/>
+    <cellStyle name="20% - 輔色2 2" xfId="28"/>
+    <cellStyle name="20% - 輔色3 2" xfId="5"/>
+    <cellStyle name="20% - 輔色4 2" xfId="24"/>
+    <cellStyle name="20% - 輔色5 2" xfId="32"/>
+    <cellStyle name="20% - 輔色6 2" xfId="35"/>
+    <cellStyle name="40% - 輔色1 2" xfId="8"/>
+    <cellStyle name="40% - 輔色2 2" xfId="23"/>
+    <cellStyle name="40% - 輔色3 2" xfId="31"/>
+    <cellStyle name="40% - 輔色4 2" xfId="34"/>
+    <cellStyle name="40% - 輔色5 2" xfId="13"/>
+    <cellStyle name="40% - 輔色6 2" xfId="26"/>
+    <cellStyle name="60% - 輔色1 2" xfId="30"/>
+    <cellStyle name="60% - 輔色2 2" xfId="33"/>
+    <cellStyle name="60% - 輔色3 2" xfId="14"/>
+    <cellStyle name="60% - 輔色4 2" xfId="25"/>
+    <cellStyle name="60% - 輔色5 2" xfId="38"/>
+    <cellStyle name="60% - 輔色6 2" xfId="39"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0] 2" xfId="40"/>
+    <cellStyle name="Comma 2" xfId="41"/>
+    <cellStyle name="Currency [0] 2" xfId="42"/>
+    <cellStyle name="Excel Built-in Normal" xfId="43"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="7"/>
+    <cellStyle name="j" xfId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="合計 2 2 2" xfId="8"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17"/>
-    <cellStyle name="Note" xfId="10" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="合計 2 3 2" xfId="15"/>
-    <cellStyle name="Warning Text" xfId="16" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="19" builtinId="53"/>
-    <cellStyle name="一般_Book1" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="16"/>
-    <cellStyle name="20% - 輔色3 2" xfId="22"/>
-    <cellStyle name="計算方式 2 2" xfId="23"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="24"/>
-    <cellStyle name="40% - 輔色1 2" xfId="25"/>
-    <cellStyle name="Heading 3" xfId="26" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="27" builtinId="19"/>
-    <cellStyle name="標準_2004 Item plan 2" xfId="28"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Output" xfId="30" builtinId="21"/>
-    <cellStyle name="計算方式 2 2 2" xfId="31"/>
-    <cellStyle name="60% - Accent3" xfId="32" builtinId="40"/>
-    <cellStyle name="千分位[0] 3" xfId="33"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="20% - Accent1" xfId="35" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="36" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="37" builtinId="24"/>
-    <cellStyle name="Total" xfId="38" builtinId="25"/>
-    <cellStyle name="備註 2 2" xfId="39"/>
-    <cellStyle name="40% - 輔色5 2" xfId="40"/>
-    <cellStyle name="60% - 輔色3 2" xfId="41"/>
-    <cellStyle name="Bad" xfId="42" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="43" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
-    <cellStyle name="一般 3" xfId="45"/>
-    <cellStyle name="20% - Accent5" xfId="46" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="47" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="48" builtinId="33"/>
-    <cellStyle name="一般 4" xfId="49"/>
-    <cellStyle name="20% - Accent2" xfId="50" builtinId="34"/>
-    <cellStyle name="60% - Accent2" xfId="51" builtinId="36"/>
-    <cellStyle name="千分位[0] 2" xfId="52"/>
-    <cellStyle name="20% - Accent6" xfId="53" builtinId="50"/>
-    <cellStyle name="一般 5" xfId="54"/>
-    <cellStyle name="Accent3" xfId="55" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="56" builtinId="38"/>
-    <cellStyle name="一般 6" xfId="57"/>
-    <cellStyle name="Accent4" xfId="58" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="59" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="60" builtinId="43"/>
-    <cellStyle name="一般 7" xfId="61"/>
-    <cellStyle name="Accent5" xfId="62" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="63" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="64" builtinId="48"/>
-    <cellStyle name="一般 8" xfId="65"/>
-    <cellStyle name="Accent6" xfId="66" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="67" builtinId="51"/>
-    <cellStyle name="スタイル 1" xfId="68"/>
-    <cellStyle name="60% - Accent6" xfId="69" builtinId="52"/>
-    <cellStyle name="40% - 輔色2 2" xfId="70"/>
-    <cellStyle name="20% - 輔色4 2" xfId="71"/>
-    <cellStyle name="60% - 輔色4 2" xfId="72"/>
-    <cellStyle name="40% - 輔色6 2" xfId="73"/>
-    <cellStyle name="20% - 輔色1 2" xfId="74"/>
-    <cellStyle name="20% - 輔色2 2" xfId="75"/>
-    <cellStyle name="一般 2" xfId="76"/>
-    <cellStyle name="60% - 輔色1 2" xfId="77"/>
-    <cellStyle name="40% - 輔色3 2" xfId="78"/>
-    <cellStyle name="20% - 輔色5 2" xfId="79"/>
-    <cellStyle name="60% - 輔色2 2" xfId="80"/>
-    <cellStyle name="40% - 輔色4 2" xfId="81"/>
-    <cellStyle name="20% - 輔色6 2" xfId="82"/>
-    <cellStyle name="合計 2" xfId="83"/>
-    <cellStyle name="輸入 2 3" xfId="84"/>
-    <cellStyle name="60% - 輔色5 2" xfId="85"/>
-    <cellStyle name="60% - 輔色6 2" xfId="86"/>
-    <cellStyle name="Comma [0] 2" xfId="87"/>
-    <cellStyle name="Comma [0]_ShinkengerOS -1 (3)" xfId="88"/>
-    <cellStyle name="Comma 2" xfId="89"/>
-    <cellStyle name="Currency [0] 2" xfId="90"/>
-    <cellStyle name="Excel Built-in Normal" xfId="91"/>
-    <cellStyle name="j" xfId="92"/>
-    <cellStyle name="Normal 2" xfId="93"/>
-    <cellStyle name="Normal 2 2" xfId="94"/>
-    <cellStyle name="Normal 2 3" xfId="95"/>
-    <cellStyle name="Normal 3" xfId="96"/>
-    <cellStyle name="Normal 4" xfId="97"/>
-    <cellStyle name="Normal 5" xfId="98"/>
-    <cellStyle name="Percent 2" xfId="99"/>
-    <cellStyle name="Style 1" xfId="100"/>
-    <cellStyle name="パーセント 2" xfId="101"/>
-    <cellStyle name="一般 16" xfId="102"/>
-    <cellStyle name="一般 9" xfId="103"/>
-    <cellStyle name="一般 9 2" xfId="104"/>
-    <cellStyle name="一般_Photo Form" xfId="105"/>
-    <cellStyle name="計算方式 2 4" xfId="106"/>
-    <cellStyle name="千分位 2" xfId="107"/>
-    <cellStyle name="千分位 3" xfId="108"/>
-    <cellStyle name="千分位 4" xfId="109"/>
-    <cellStyle name="中等 2" xfId="110"/>
-    <cellStyle name="標準_KRW_OS_20110523" xfId="111"/>
-    <cellStyle name="月" xfId="112"/>
-    <cellStyle name="月 2" xfId="113"/>
-    <cellStyle name="月 2 2" xfId="114"/>
-    <cellStyle name="月 2 3" xfId="115"/>
-    <cellStyle name="月 3" xfId="116"/>
-    <cellStyle name="月 4" xfId="117"/>
-    <cellStyle name="說明文字 2" xfId="118"/>
-    <cellStyle name="列レベル_1 2" xfId="119"/>
-    <cellStyle name="合計 2 2" xfId="120"/>
-    <cellStyle name="輸入 2 3 2" xfId="121"/>
-    <cellStyle name="合計 2 3" xfId="122"/>
-    <cellStyle name="貨幣 2" xfId="123"/>
-    <cellStyle name="合計 2 4" xfId="124"/>
-    <cellStyle name="貨幣 3" xfId="125"/>
-    <cellStyle name="好 2" xfId="126"/>
-    <cellStyle name="輸入 2" xfId="127"/>
-    <cellStyle name="百分比 2" xfId="128"/>
-    <cellStyle name="計算方式 2" xfId="129"/>
-    <cellStyle name="計算方式 2 3" xfId="130"/>
-    <cellStyle name="計算方式 2 3 2" xfId="131"/>
-    <cellStyle name="桁区切り 2" xfId="132"/>
-    <cellStyle name="貨幣 4" xfId="133"/>
-    <cellStyle name="貨幣 5" xfId="134"/>
-    <cellStyle name="通貨 2" xfId="135"/>
-    <cellStyle name="連結的儲存格 2" xfId="136"/>
-    <cellStyle name="備註 2" xfId="137"/>
-    <cellStyle name="輔色1 2" xfId="138"/>
-    <cellStyle name="輔色2 2" xfId="139"/>
-    <cellStyle name="輔色3 2" xfId="140"/>
-    <cellStyle name="輔色4 2" xfId="141"/>
-    <cellStyle name="輔色5 2" xfId="142"/>
-    <cellStyle name="輔色6 2" xfId="143"/>
-    <cellStyle name="標準 2" xfId="144"/>
-    <cellStyle name="標準 2 2" xfId="145"/>
-    <cellStyle name="標準 2 3" xfId="146"/>
-    <cellStyle name="標準 3" xfId="147"/>
-    <cellStyle name="標準 4" xfId="148"/>
-    <cellStyle name="標準 5" xfId="149"/>
-    <cellStyle name="標準 58" xfId="150"/>
-    <cellStyle name="標準_030930 Y2004 LAUNCHING ITEM PLAN HATTORI" xfId="151"/>
-    <cellStyle name="標題 1 2" xfId="152"/>
-    <cellStyle name="標題 2 2" xfId="153"/>
-    <cellStyle name="標題 3 2" xfId="154"/>
-    <cellStyle name="標題 4 2" xfId="155"/>
-    <cellStyle name="標題 5" xfId="156"/>
-    <cellStyle name="樣式 1" xfId="157"/>
-    <cellStyle name="輸入 2 2" xfId="158"/>
-    <cellStyle name="輸入 2 2 2" xfId="159"/>
-    <cellStyle name="輸入 2 4" xfId="160"/>
-    <cellStyle name="輸出 2" xfId="161"/>
-    <cellStyle name="輸出 2 2" xfId="162"/>
-    <cellStyle name="檢查儲存格 2" xfId="163"/>
-    <cellStyle name="壞 2" xfId="164"/>
-    <cellStyle name="警告文字 2" xfId="165"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 2 2" xfId="46"/>
+    <cellStyle name="Normal 2 3" xfId="47"/>
+    <cellStyle name="Normal 3" xfId="48"/>
+    <cellStyle name="Normal 4" xfId="49"/>
+    <cellStyle name="Normal 5" xfId="50"/>
+    <cellStyle name="Percent 2" xfId="51"/>
+    <cellStyle name="Style 1" xfId="52"/>
+    <cellStyle name="スタイル 1" xfId="22"/>
+    <cellStyle name="パーセント 2" xfId="53"/>
+    <cellStyle name="一般 16" xfId="54"/>
+    <cellStyle name="一般 2" xfId="29"/>
+    <cellStyle name="一般 3" xfId="15"/>
+    <cellStyle name="一般 4" xfId="16"/>
+    <cellStyle name="一般 5" xfId="18"/>
+    <cellStyle name="一般 6" xfId="19"/>
+    <cellStyle name="一般 7" xfId="20"/>
+    <cellStyle name="一般 8" xfId="21"/>
+    <cellStyle name="一般 9" xfId="55"/>
+    <cellStyle name="一般 9 2" xfId="56"/>
+    <cellStyle name="一般_Book1" xfId="4"/>
+    <cellStyle name="一般_Photo Form" xfId="57"/>
+    <cellStyle name="中等 2" xfId="62"/>
+    <cellStyle name="備註 2" xfId="88"/>
+    <cellStyle name="備註 2 2" xfId="12"/>
+    <cellStyle name="列レベル_1 2" xfId="70"/>
+    <cellStyle name="千分位 2" xfId="59"/>
+    <cellStyle name="千分位 3" xfId="60"/>
+    <cellStyle name="千分位 4" xfId="61"/>
+    <cellStyle name="千分位[0] 2" xfId="17"/>
+    <cellStyle name="千分位[0] 3" xfId="11"/>
+    <cellStyle name="合計 2" xfId="36"/>
+    <cellStyle name="合計 2 2" xfId="71"/>
+    <cellStyle name="合計 2 2 2" xfId="2"/>
+    <cellStyle name="合計 2 3" xfId="73"/>
+    <cellStyle name="合計 2 3 2" xfId="3"/>
+    <cellStyle name="合計 2 4" xfId="75"/>
+    <cellStyle name="壞 2" xfId="115"/>
+    <cellStyle name="好 2" xfId="77"/>
+    <cellStyle name="月" xfId="63"/>
+    <cellStyle name="月 2" xfId="64"/>
+    <cellStyle name="月 2 2" xfId="65"/>
+    <cellStyle name="月 2 3" xfId="66"/>
+    <cellStyle name="月 3" xfId="67"/>
+    <cellStyle name="月 4" xfId="68"/>
+    <cellStyle name="桁区切り 2" xfId="83"/>
+    <cellStyle name="標準 2" xfId="95"/>
+    <cellStyle name="標準 2 2" xfId="96"/>
+    <cellStyle name="標準 2 3" xfId="97"/>
+    <cellStyle name="標準 3" xfId="98"/>
+    <cellStyle name="標準 4" xfId="99"/>
+    <cellStyle name="標準 5" xfId="100"/>
+    <cellStyle name="標準 58" xfId="101"/>
+    <cellStyle name="標準_030930 Y2004 LAUNCHING ITEM PLAN HATTORI" xfId="102"/>
+    <cellStyle name="標準_2004 Item plan 2" xfId="9"/>
+    <cellStyle name="標題 1 2" xfId="103"/>
+    <cellStyle name="標題 2 2" xfId="104"/>
+    <cellStyle name="標題 3 2" xfId="105"/>
+    <cellStyle name="標題 4 2" xfId="106"/>
+    <cellStyle name="標題 5" xfId="107"/>
+    <cellStyle name="樣式 1" xfId="108"/>
+    <cellStyle name="檢查儲存格 2" xfId="114"/>
+    <cellStyle name="百分比 2" xfId="79"/>
+    <cellStyle name="計算方式 2" xfId="80"/>
+    <cellStyle name="計算方式 2 2" xfId="6"/>
+    <cellStyle name="計算方式 2 2 2" xfId="10"/>
+    <cellStyle name="計算方式 2 3" xfId="81"/>
+    <cellStyle name="計算方式 2 3 2" xfId="82"/>
+    <cellStyle name="計算方式 2 4" xfId="58"/>
+    <cellStyle name="說明文字 2" xfId="69"/>
+    <cellStyle name="警告文字 2" xfId="116"/>
+    <cellStyle name="貨幣 2" xfId="74"/>
+    <cellStyle name="貨幣 3" xfId="76"/>
+    <cellStyle name="貨幣 4" xfId="84"/>
+    <cellStyle name="貨幣 5" xfId="85"/>
+    <cellStyle name="輔色1 2" xfId="89"/>
+    <cellStyle name="輔色2 2" xfId="90"/>
+    <cellStyle name="輔色3 2" xfId="91"/>
+    <cellStyle name="輔色4 2" xfId="92"/>
+    <cellStyle name="輔色5 2" xfId="93"/>
+    <cellStyle name="輔色6 2" xfId="94"/>
+    <cellStyle name="輸入 2" xfId="78"/>
+    <cellStyle name="輸入 2 2" xfId="109"/>
+    <cellStyle name="輸入 2 2 2" xfId="110"/>
+    <cellStyle name="輸入 2 3" xfId="37"/>
+    <cellStyle name="輸入 2 3 2" xfId="72"/>
+    <cellStyle name="輸入 2 4" xfId="111"/>
+    <cellStyle name="輸出 2" xfId="112"/>
+    <cellStyle name="輸出 2 2" xfId="113"/>
+    <cellStyle name="通貨 2" xfId="86"/>
+    <cellStyle name="連結的儲存格 2" xfId="87"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2741,7 +2135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2779,7 +2173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2817,7 +2211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect r="42449"/>
         <a:stretch>
           <a:fillRect/>
@@ -2856,7 +2250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect l="7955" t="15141" r="53858" b="5881"/>
         <a:stretch>
           <a:fillRect/>
@@ -2895,7 +2289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect b="20410"/>
         <a:stretch>
           <a:fillRect/>
@@ -2934,7 +2328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2972,7 +2366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3010,7 +2404,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3065,7 +2459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3120,7 +2514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3158,7 +2552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3196,7 +2590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3251,7 +2645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:srcRect r="57395"/>
         <a:stretch>
           <a:fillRect/>
@@ -3290,7 +2684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:srcRect r="46309"/>
         <a:stretch>
           <a:fillRect/>
@@ -3329,7 +2723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3384,7 +2778,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3422,7 +2816,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3723,19 +3117,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
@@ -3745,17 +3139,17 @@
   <cols>
     <col min="1" max="1" width="5.125" style="21" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="22" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.95833333333333" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.3083333333333" style="22" customWidth="1"/>
+    <col min="3" max="3" width="7" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="22" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.8833333333333" style="21" customWidth="1"/>
-    <col min="7" max="7" width="7.325" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.4583333333333" style="21" customWidth="1"/>
-    <col min="9" max="9" width="11.0666666666667" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.575" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.175" style="21" customWidth="1"/>
-    <col min="12" max="12" width="9.46666666666667" style="21" customWidth="1"/>
-    <col min="13" max="13" width="7.85833333333333" style="21" customWidth="1"/>
+    <col min="6" max="6" width="80.875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="21" customWidth="1"/>
     <col min="14" max="14" width="10.75" style="21" customWidth="1"/>
     <col min="15" max="15" width="4" style="21" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="2.125" style="21" hidden="1" customWidth="1"/>
@@ -3765,11 +3159,11 @@
     <col min="21" max="21" width="9.5" style="21" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="14.625" style="21" customWidth="1"/>
     <col min="23" max="23" width="9" style="21"/>
-    <col min="24" max="24" width="23.5666666666667" style="23" customWidth="1"/>
+    <col min="24" max="24" width="23.625" style="23" customWidth="1"/>
     <col min="25" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3782,24 +3176,24 @@
       <c r="F1" s="28"/>
       <c r="G1" s="29"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="110"/>
+      <c r="Q1" s="94"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -3812,22 +3206,22 @@
       <c r="F2" s="32"/>
       <c r="G2" s="29"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="28"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -3836,10 +3230,10 @@
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="73"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="29"/>
@@ -3853,2060 +3247,2071 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:24">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:24" ht="24.95" customHeight="1">
+      <c r="A4" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="111" t="s">
+      <c r="R4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="112" t="s">
+      <c r="T4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="114"/>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:24">
-      <c r="A5" s="37"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="118" t="s">
+      <c r="X4" s="95"/>
+    </row>
+    <row r="5" spans="1:24" ht="24.95" customHeight="1">
+      <c r="A5" s="119"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="37" customHeight="1" spans="1:24">
-      <c r="A6" s="37"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="40" t="s">
+    <row r="6" spans="1:24" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42">
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38">
         <v>2020</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="122"/>
-    </row>
-    <row r="7" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A7" s="45">
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="100"/>
+    </row>
+    <row r="7" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="46">
         <v>4500</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="78">
         <v>340</v>
       </c>
-      <c r="J7" s="93">
+      <c r="J7" s="78">
         <v>360</v>
       </c>
-      <c r="K7" s="139" t="s">
+      <c r="K7" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L7" s="79">
         <v>24</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="97">
+      <c r="N7" s="81">
         <v>44287</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="123" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="124">
+      <c r="W7" s="41"/>
+      <c r="X7" s="102">
         <v>44153</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="128"/>
-    </row>
-    <row r="9" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="128"/>
-    </row>
-    <row r="10" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A10" s="45">
+    <row r="8" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="106"/>
+    </row>
+    <row r="9" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="106"/>
+    </row>
+    <row r="10" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="41">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="42">
         <v>2</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="46">
         <v>2300</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="78">
         <v>180</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="78">
         <v>190</v>
       </c>
-      <c r="K10" s="139" t="s">
+      <c r="K10" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="95">
+      <c r="L10" s="79">
         <v>24</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="97">
+      <c r="N10" s="81">
         <v>44228</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45" t="s">
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="123" t="s">
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="124">
+      <c r="W10" s="41"/>
+      <c r="X10" s="102">
         <v>44153</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="129"/>
-    </row>
-    <row r="12" s="20" customFormat="1" ht="25" customHeight="1" spans="1:24">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="130"/>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="3:24">
+    <row r="11" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="107"/>
+    </row>
+    <row r="12" spans="1:24" s="20" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="108"/>
+    </row>
+    <row r="13" spans="1:24" ht="24.95" customHeight="1">
       <c r="C13" s="22">
         <v>3</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="46">
         <v>3200</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="78">
         <v>245</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="78">
         <v>260</v>
       </c>
-      <c r="K13" s="139" t="s">
+      <c r="K13" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="95">
+      <c r="L13" s="79">
         <v>24</v>
       </c>
-      <c r="M13" s="96" t="s">
+      <c r="M13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="97">
+      <c r="N13" s="81">
         <v>44228</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45" t="s">
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="123" t="s">
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W13" s="45"/>
-      <c r="X13" s="124">
+      <c r="W13" s="41"/>
+      <c r="X13" s="102">
         <v>44153</v>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="3:24">
-      <c r="C14" s="53"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="129"/>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="3:24">
-      <c r="C15" s="53"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="130"/>
-    </row>
-    <row r="16" ht="25" customHeight="1" spans="3:24">
+    <row r="14" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C14" s="49"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="107"/>
+    </row>
+    <row r="15" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C15" s="49"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="108"/>
+    </row>
+    <row r="16" spans="1:24" ht="24.95" customHeight="1">
       <c r="C16" s="22">
         <v>4</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="46">
         <v>11000</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="78">
         <v>845</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="78">
         <v>890</v>
       </c>
-      <c r="K16" s="139" t="s">
+      <c r="K16" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="95">
+      <c r="L16" s="79">
         <v>6</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="97">
+      <c r="N16" s="81">
         <v>44228</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45" t="s">
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="123" t="s">
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="45"/>
-      <c r="X16" s="124">
+      <c r="W16" s="41"/>
+      <c r="X16" s="102">
         <v>44153</v>
       </c>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="3:24">
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="129"/>
-    </row>
-    <row r="18" ht="25" customHeight="1" spans="3:24">
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="130"/>
-    </row>
-    <row r="19" ht="25" customHeight="1" spans="3:24">
+    <row r="17" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="107"/>
+    </row>
+    <row r="18" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="108"/>
+    </row>
+    <row r="19" spans="3:24" ht="24.95" customHeight="1">
       <c r="C19" s="22">
         <v>5</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="46">
         <v>4800</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="78">
         <v>370</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="78">
         <v>390</v>
       </c>
-      <c r="K19" s="139" t="s">
+      <c r="K19" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="102">
+      <c r="L19" s="86">
         <v>20</v>
       </c>
-      <c r="M19" s="96" t="s">
+      <c r="M19" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="97">
+      <c r="N19" s="81">
         <v>44256</v>
       </c>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103" t="s">
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="123" t="s">
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="103"/>
-      <c r="X19" s="124">
+      <c r="W19" s="87"/>
+      <c r="X19" s="102">
         <v>44159</v>
       </c>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="3:24">
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="129"/>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="3:24">
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="130"/>
-    </row>
-    <row r="22" ht="25" customHeight="1" spans="3:24">
+    <row r="20" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="107"/>
+    </row>
+    <row r="21" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="108"/>
+    </row>
+    <row r="22" spans="3:24" ht="24.95" customHeight="1">
       <c r="C22" s="22">
         <v>6</v>
       </c>
       <c r="D22" s="22">
         <v>4549660542711</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="46">
         <v>2200</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="78">
         <v>152</v>
       </c>
-      <c r="J22" s="93">
+      <c r="J22" s="78">
         <v>160</v>
       </c>
-      <c r="K22" s="139" t="s">
+      <c r="K22" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="95">
+      <c r="L22" s="79">
         <v>40</v>
       </c>
-      <c r="M22" s="96" t="s">
+      <c r="M22" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="97">
+      <c r="N22" s="81">
         <v>44287</v>
       </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45" t="s">
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="123" t="s">
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="124">
+      <c r="W22" s="41"/>
+      <c r="X22" s="102">
         <v>44193</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="3:24">
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="129"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="3:24">
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="130"/>
-    </row>
-    <row r="25" ht="25" customHeight="1" spans="3:24">
+    <row r="23" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="107"/>
+    </row>
+    <row r="24" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="108"/>
+    </row>
+    <row r="25" spans="3:24" ht="24.95" customHeight="1">
       <c r="C25" s="22">
         <v>7</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="46">
         <v>4000</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="78">
         <v>276</v>
       </c>
-      <c r="J25" s="93">
+      <c r="J25" s="78">
         <v>290</v>
       </c>
-      <c r="K25" s="139" t="s">
+      <c r="K25" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="95">
+      <c r="L25" s="79">
         <v>24</v>
       </c>
-      <c r="M25" s="96" t="s">
+      <c r="M25" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="97">
+      <c r="N25" s="81">
         <v>44287</v>
       </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45" t="s">
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="123" t="s">
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="45"/>
-      <c r="X25" s="124" t="s">
+      <c r="W25" s="41"/>
+      <c r="X25" s="102" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="25" customHeight="1" spans="3:24">
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="129"/>
-    </row>
-    <row r="27" ht="25" customHeight="1" spans="3:24">
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="130"/>
-    </row>
-    <row r="28" ht="25" customHeight="1" spans="3:24">
+    <row r="26" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="107"/>
+    </row>
+    <row r="27" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="108"/>
+    </row>
+    <row r="28" spans="3:24" ht="24.95" customHeight="1">
       <c r="C28" s="22">
         <v>8</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="46">
         <v>5000</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="78">
         <v>380</v>
       </c>
-      <c r="J28" s="93">
+      <c r="J28" s="78">
         <v>400</v>
       </c>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="95">
+      <c r="L28" s="79">
         <v>12</v>
       </c>
-      <c r="M28" s="96" t="s">
+      <c r="M28" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="97">
+      <c r="N28" s="81">
         <v>44287</v>
       </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45" t="s">
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="123" t="s">
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W28" s="45"/>
-      <c r="X28" s="124">
+      <c r="W28" s="41"/>
+      <c r="X28" s="102">
         <v>44186</v>
       </c>
     </row>
-    <row r="29" ht="25" customHeight="1" spans="3:24">
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-    </row>
-    <row r="30" ht="25" customHeight="1" spans="3:24">
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-    </row>
-    <row r="31" ht="25" customHeight="1" spans="3:24">
-      <c r="C31" s="60">
+    <row r="29" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+    </row>
+    <row r="30" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+    </row>
+    <row r="31" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C31" s="56">
         <v>9</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="46">
         <v>5100</v>
       </c>
-      <c r="I31" s="93">
+      <c r="I31" s="78">
         <v>390</v>
       </c>
-      <c r="J31" s="93">
+      <c r="J31" s="78">
         <v>410</v>
       </c>
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="102">
+      <c r="L31" s="86">
         <v>24</v>
       </c>
-      <c r="M31" s="96" t="s">
+      <c r="M31" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="97">
+      <c r="N31" s="81">
         <v>44287</v>
       </c>
-      <c r="O31" s="97">
+      <c r="O31" s="81">
         <v>44287</v>
       </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="45" t="s">
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="123" t="s">
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W31" s="123"/>
-      <c r="X31" s="124">
+      <c r="W31" s="101"/>
+      <c r="X31" s="102">
         <v>44194</v>
       </c>
     </row>
-    <row r="32" ht="25" customHeight="1" spans="3:24">
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="56"/>
-    </row>
-    <row r="33" ht="25" customHeight="1" spans="3:24">
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="56"/>
-    </row>
-    <row r="34" ht="25" customHeight="1" spans="3:24">
-      <c r="C34" s="60">
+    <row r="32" spans="3:24" ht="24.95" customHeight="1">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="52"/>
+    </row>
+    <row r="33" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="52"/>
+    </row>
+    <row r="34" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C34" s="56">
         <v>10</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="46">
         <v>4800</v>
       </c>
-      <c r="I34" s="93">
+      <c r="I34" s="78">
         <v>333</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="78">
         <v>350</v>
       </c>
-      <c r="K34" s="139" t="s">
+      <c r="K34" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="102">
+      <c r="L34" s="86">
         <v>20</v>
       </c>
-      <c r="M34" s="96" t="s">
+      <c r="M34" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N34" s="97">
+      <c r="N34" s="81">
         <v>44287</v>
       </c>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103" t="s">
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="123" t="s">
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="103"/>
-      <c r="X34" s="124" t="s">
+      <c r="W34" s="87"/>
+      <c r="X34" s="102" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" ht="25" customHeight="1" spans="3:24">
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="56"/>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="3:24">
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="56"/>
-    </row>
-    <row r="37" ht="25" customHeight="1" spans="3:24">
-      <c r="C37" s="60">
+    <row r="35" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="52"/>
+    </row>
+    <row r="36" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="52"/>
+    </row>
+    <row r="37" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C37" s="56">
         <v>11</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="46">
         <v>3600</v>
       </c>
-      <c r="I37" s="93">
+      <c r="I37" s="78">
         <v>247</v>
       </c>
-      <c r="J37" s="93">
+      <c r="J37" s="78">
         <v>260</v>
       </c>
-      <c r="K37" s="139" t="s">
+      <c r="K37" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="86">
         <v>20</v>
       </c>
-      <c r="M37" s="96" t="s">
+      <c r="M37" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="97">
+      <c r="N37" s="81">
         <v>44287</v>
       </c>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103" t="s">
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="123" t="s">
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W37" s="103"/>
-      <c r="X37" s="124" t="s">
+      <c r="W37" s="87"/>
+      <c r="X37" s="102" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" ht="25" customHeight="1" spans="3:24">
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="131"/>
-      <c r="X38" s="56"/>
-    </row>
-    <row r="39" ht="25" customHeight="1" spans="3:24">
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="131"/>
-      <c r="X39" s="56"/>
-    </row>
-    <row r="40" ht="25" customHeight="1" spans="3:24">
-      <c r="C40" s="64">
+    <row r="38" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="52"/>
+    </row>
+    <row r="39" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="52"/>
+    </row>
+    <row r="40" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C40" s="60">
         <v>12</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="46">
         <v>4000</v>
       </c>
-      <c r="I40" s="93">
+      <c r="I40" s="78">
         <v>276</v>
       </c>
-      <c r="J40" s="93">
+      <c r="J40" s="78">
         <v>290</v>
       </c>
-      <c r="K40" s="139" t="s">
+      <c r="K40" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="95">
+      <c r="L40" s="79">
         <v>12</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="97">
+      <c r="N40" s="81">
         <v>44287</v>
       </c>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45" t="s">
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="123" t="s">
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W40" s="45"/>
-      <c r="X40" s="132" t="s">
+      <c r="W40" s="41"/>
+      <c r="X40" s="110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" ht="25" customHeight="1" spans="3:24">
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="56"/>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="3:24">
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="56"/>
-    </row>
-    <row r="43" ht="36" customHeight="1" spans="1:24">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69">
+    <row r="41" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="52"/>
+    </row>
+    <row r="42" spans="1:24" ht="24.95" customHeight="1">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="52"/>
+    </row>
+    <row r="43" spans="1:24" ht="36" customHeight="1">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65">
         <v>2021</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="133"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="137"/>
-      <c r="X43" s="138"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:24">
-      <c r="C44" s="72">
+      <c r="G43" s="66"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="115"/>
+      <c r="X43" s="116"/>
+    </row>
+    <row r="44" spans="1:24" ht="24" customHeight="1">
+      <c r="C44" s="68">
         <v>12</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="46">
         <v>3600</v>
       </c>
-      <c r="I44" s="93">
+      <c r="I44" s="78">
         <v>247</v>
       </c>
-      <c r="J44" s="93">
+      <c r="J44" s="78">
         <v>260</v>
       </c>
-      <c r="K44" s="139" t="s">
+      <c r="K44" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="95">
+      <c r="L44" s="79">
         <v>6</v>
       </c>
-      <c r="M44" s="96" t="s">
+      <c r="M44" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="97">
+      <c r="N44" s="81">
         <v>44287</v>
       </c>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45" t="s">
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="123" t="s">
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W44" s="45"/>
-      <c r="X44" s="118" t="s">
+      <c r="W44" s="41"/>
+      <c r="X44" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:24">
-      <c r="C45" s="53"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="126"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="131"/>
-      <c r="X45" s="129"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:24">
-      <c r="C46" s="53"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="127"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="131"/>
-      <c r="X46" s="130"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:24">
-      <c r="C47" s="72">
+    <row r="45" spans="1:24" ht="24" customHeight="1">
+      <c r="C45" s="49"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="107"/>
+    </row>
+    <row r="46" spans="1:24" ht="24" customHeight="1">
+      <c r="C46" s="49"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="108"/>
+    </row>
+    <row r="47" spans="1:24" ht="24" customHeight="1">
+      <c r="C47" s="68">
         <v>13</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="46">
         <v>1980</v>
       </c>
-      <c r="I47" s="93">
+      <c r="I47" s="78">
         <v>143</v>
       </c>
-      <c r="J47" s="93">
+      <c r="J47" s="78">
         <v>150</v>
       </c>
-      <c r="K47" s="139" t="s">
+      <c r="K47" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="95">
+      <c r="L47" s="79">
         <v>12</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="97">
+      <c r="N47" s="81">
         <v>44287</v>
       </c>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45" t="s">
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="123" t="s">
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W47" s="45"/>
-      <c r="X47" s="118" t="s">
+      <c r="W47" s="41"/>
+      <c r="X47" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" ht="24" customHeight="1" spans="3:24">
-      <c r="C48" s="53"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="125"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="127"/>
-      <c r="U48" s="127"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="131"/>
-      <c r="X48" s="129"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:24">
-      <c r="C49" s="53"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="125"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="131"/>
-      <c r="X49" s="130"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:24">
-      <c r="C50" s="72">
+    <row r="48" spans="1:24" ht="24" customHeight="1">
+      <c r="C48" s="49"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="107"/>
+    </row>
+    <row r="49" spans="3:24" ht="24" customHeight="1">
+      <c r="C49" s="49"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="108"/>
+    </row>
+    <row r="50" spans="3:24" ht="24" customHeight="1">
+      <c r="C50" s="68">
         <v>14</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="46">
         <v>2200</v>
       </c>
-      <c r="I50" s="93">
+      <c r="I50" s="78">
         <v>152</v>
       </c>
-      <c r="J50" s="93">
+      <c r="J50" s="78">
         <v>160</v>
       </c>
-      <c r="K50" s="139" t="s">
+      <c r="K50" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="95">
+      <c r="L50" s="79">
         <v>12</v>
       </c>
-      <c r="M50" s="96" t="s">
+      <c r="M50" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="97">
+      <c r="N50" s="81">
         <v>44287</v>
       </c>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45" t="s">
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="123" t="s">
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W50" s="45"/>
-      <c r="X50" s="118" t="s">
+      <c r="W50" s="41"/>
+      <c r="X50" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1" spans="3:24">
-      <c r="C51" s="53"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="125"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="127"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="131"/>
-      <c r="X51" s="129"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:24">
-      <c r="C52" s="53"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="98"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="127"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="131"/>
-      <c r="X52" s="130"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:24">
-      <c r="C53" s="72">
+    <row r="51" spans="3:24" ht="24" customHeight="1">
+      <c r="C51" s="49"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="107"/>
+    </row>
+    <row r="52" spans="3:24" ht="24" customHeight="1">
+      <c r="C52" s="49"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="109"/>
+      <c r="X52" s="108"/>
+    </row>
+    <row r="53" spans="3:24" ht="24" customHeight="1">
+      <c r="C53" s="68">
         <v>15</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="50">
+      <c r="H53" s="46">
         <v>4500</v>
       </c>
-      <c r="I53" s="93">
+      <c r="I53" s="78">
         <v>332</v>
       </c>
-      <c r="J53" s="93">
+      <c r="J53" s="78">
         <v>350</v>
       </c>
-      <c r="K53" s="139" t="s">
+      <c r="K53" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="95">
+      <c r="L53" s="79">
         <v>10</v>
       </c>
-      <c r="M53" s="96" t="s">
+      <c r="M53" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N53" s="97">
+      <c r="N53" s="81">
         <v>44317</v>
       </c>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45" t="s">
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="123" t="s">
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W53" s="45"/>
-      <c r="X53" s="118" t="s">
+      <c r="W53" s="41"/>
+      <c r="X53" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="24" customHeight="1" spans="3:24">
-      <c r="C54" s="53"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="100"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="127"/>
-      <c r="U54" s="127"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="131"/>
-      <c r="X54" s="129"/>
-    </row>
-    <row r="55" ht="24" customHeight="1" spans="3:24">
-      <c r="C55" s="53"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="99"/>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="100"/>
-      <c r="R55" s="125"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="127"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="131"/>
-      <c r="X55" s="130"/>
-    </row>
-    <row r="56" ht="24" customHeight="1" spans="3:24">
-      <c r="C56" s="72">
+    <row r="54" spans="3:24" ht="24" customHeight="1">
+      <c r="C54" s="49"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="105"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="109"/>
+      <c r="X54" s="107"/>
+    </row>
+    <row r="55" spans="3:24" ht="24" customHeight="1">
+      <c r="C55" s="49"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="108"/>
+    </row>
+    <row r="56" spans="3:24" ht="24" customHeight="1">
+      <c r="C56" s="68">
         <v>16</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="46">
         <v>4000</v>
       </c>
-      <c r="I56" s="93">
+      <c r="I56" s="78">
         <v>304</v>
       </c>
-      <c r="J56" s="93">
+      <c r="J56" s="78">
         <v>320</v>
       </c>
-      <c r="K56" s="139" t="s">
+      <c r="K56" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="95">
+      <c r="L56" s="79">
         <v>10</v>
       </c>
-      <c r="M56" s="96" t="s">
+      <c r="M56" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="97">
+      <c r="N56" s="81">
         <v>44317</v>
       </c>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45" t="s">
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="123" t="s">
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W56" s="45"/>
-      <c r="X56" s="118" t="s">
+      <c r="W56" s="41"/>
+      <c r="X56" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" ht="24" customHeight="1" spans="3:24">
-      <c r="C57" s="53"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="125"/>
-      <c r="S57" s="126"/>
-      <c r="T57" s="127"/>
-      <c r="U57" s="127"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="131"/>
-      <c r="X57" s="129"/>
-    </row>
-    <row r="58" ht="24" customHeight="1" spans="3:24">
-      <c r="C58" s="53"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="126"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="127"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="131"/>
-      <c r="X58" s="130"/>
-    </row>
-    <row r="59" ht="24" customHeight="1" spans="3:24">
+    <row r="57" spans="3:24" ht="24" customHeight="1">
+      <c r="C57" s="49"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="105"/>
+      <c r="U57" s="105"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="107"/>
+    </row>
+    <row r="58" spans="3:24" ht="24" customHeight="1">
+      <c r="C58" s="49"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="105"/>
+      <c r="U58" s="105"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="108"/>
+    </row>
+    <row r="59" spans="3:24" ht="24" customHeight="1">
       <c r="C59" s="22">
         <v>17</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="50">
+      <c r="H59" s="46">
         <v>8000</v>
       </c>
-      <c r="I59" s="93">
+      <c r="I59" s="78">
         <v>618</v>
       </c>
-      <c r="J59" s="93">
+      <c r="J59" s="78">
         <v>650</v>
       </c>
-      <c r="K59" s="139" t="s">
+      <c r="K59" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="L59" s="95">
+      <c r="L59" s="79">
         <v>10</v>
       </c>
-      <c r="M59" s="96" t="s">
+      <c r="M59" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="N59" s="97">
+      <c r="N59" s="81">
         <v>44348</v>
       </c>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45" t="s">
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="123" t="s">
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W59" s="45"/>
-      <c r="X59" s="118" t="s">
+      <c r="W59" s="41"/>
+      <c r="X59" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" spans="3:24">
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="100"/>
-      <c r="P60" s="100"/>
-      <c r="Q60" s="100"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="126"/>
-      <c r="T60" s="127"/>
-      <c r="U60" s="127"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="131"/>
-      <c r="X60" s="129"/>
-    </row>
-    <row r="61" ht="24" customHeight="1" spans="3:24">
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="98"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="100"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="126"/>
-      <c r="T61" s="127"/>
-      <c r="U61" s="127"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="131"/>
-      <c r="X61" s="130"/>
+    <row r="60" spans="3:24" ht="24" customHeight="1">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="105"/>
+      <c r="U60" s="105"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="107"/>
+    </row>
+    <row r="61" spans="3:24" ht="24" customHeight="1">
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="109"/>
+      <c r="X61" s="108"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:V13">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A5:V13"/>
   <mergeCells count="21">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="8" scale="21" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5920,7 +5325,7 @@
     <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:12">
+    <row r="1" spans="1:12" ht="26.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -5950,7 +5355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="4" t="s">
@@ -5972,7 +5377,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A3" s="10" t="s">
         <v>93</v>
       </c>
@@ -5996,7 +5401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" ht="408" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="408" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
@@ -6010,7 +5415,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" ht="25.5" spans="1:12">
+    <row r="5" spans="1:12" ht="26.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -6040,7 +5445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="e">
@@ -6062,7 +5467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
@@ -6086,7 +5491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" ht="408" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="408" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -6100,7 +5505,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" ht="25.5" spans="1:12">
+    <row r="9" spans="1:12" ht="26.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -6130,7 +5535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="e">
@@ -6152,7 +5557,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A11" s="10" t="s">
         <v>93</v>
       </c>
@@ -6176,7 +5581,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" ht="408" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="408" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -6190,7 +5595,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" ht="25.5" spans="1:12">
+    <row r="13" spans="1:12" ht="26.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -6220,7 +5625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="e">
@@ -6242,7 +5647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -6266,7 +5671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" ht="408" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" ht="408" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -6280,7 +5685,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" ht="25.5" spans="1:12">
+    <row r="17" spans="1:12" ht="26.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -6302,7 +5707,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="e">
@@ -6320,7 +5725,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="25.5" spans="1:12">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="26.25">
       <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
@@ -6340,7 +5745,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" ht="408" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="408" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -6355,9 +5760,8 @@
       <c r="L20" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="8" scale="10" orientation="landscape"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>